--- a/medicine/Enfance/Capitaine_ours_bleu/Capitaine_ours_bleu.xlsx
+++ b/medicine/Enfance/Capitaine_ours_bleu/Capitaine_ours_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les 13 vies et demie du Capitaine ours bleu est une série de deux livres écrits en allemand à l'origine, mais qui ont été traduits dans plusieurs langues. Ils racontent la moitié de la vie d'un ours bleu aux origines inconnues qui habite un continent imaginaire, la Zamonie. Le roman est divisé en «vies» pour représenter les chapitres.
 Auteur: Walter Moers
@@ -513,7 +525,9 @@
           <t>Tome 1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Voici les noms des 10 vies racontées.
 1. Ma vie de Minipirate
@@ -553,7 +567,9 @@
           <t>Tome 2</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici les noms des 3 vies et demie racontées.
 1. Ma vie dans la Grosse tête
